--- a/Android/ExcelData_V2/MemorialTable.xlsx
+++ b/Android/ExcelData_V2/MemorialTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Dev\Client\Prj_Sub_Culture\Android\ExcelData_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5501E0F-F6CC-458C-9D49-1EF85C16B26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F672360-1A2C-42D4-932D-48927DD962E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="1" activeTab="7" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="1" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -2038,7 +2038,13 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="30">
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>NONE</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="31" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -2046,9 +2052,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2086,7 +2092,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2192,7 +2198,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2334,7 +2340,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4621,8 +4627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4667,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -5145,7 +5151,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E7A7D18-FD96-442C-9001-001AEB5CD872}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>

--- a/Android/ExcelData_V2/MemorialTable.xlsx
+++ b/Android/ExcelData_V2/MemorialTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Documents\Projects\ZeroOne\Android\ExcelData_V2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shanash\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F672360-1A2C-42D4-932D-48927DD962E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9F709A-9E3F-4F49-8D70-A1FA7E6902C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="1" activeTab="6" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="707" firstSheet="1" activeTab="3" xr2:uid="{12AB0069-08DC-4F06-9A7D-57D2D5173796}"/>
   </bookViews>
   <sheets>
     <sheet name="!Usable" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
   <definedNames>
     <definedName name="inequality_type" comment="부등호 값">'!참조_ENUM'!$J$3:$J$9</definedName>
     <definedName name="inequality_type_desc" comment="부등호 값 설명">'!참조_ENUM'!$K$3:$K$9</definedName>
-    <definedName name="me_chat_motion_data_id">me_chat_motion_data!$A$5:$A$36</definedName>
+    <definedName name="me_chat_motion_data_id">me_chat_motion_data!$A$5:$A$37</definedName>
     <definedName name="me_serifu_data_id">me_serifu_data!$A$5:$A$67</definedName>
     <definedName name="touch_body_type" comment="터치 가능한 신체">'!참조_ENUM'!$B$3:$B$16</definedName>
     <definedName name="touch_body_type_desc">'!참조_ENUM'!$C$3:$C$16</definedName>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="311">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1430,6 +1430,9 @@
   <si>
     <t>[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00_idle_01</t>
   </si>
   <si>
     <t>key_1:int</t>
@@ -2038,13 +2041,7 @@
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
       <sheetData sheetId="29"/>
-      <sheetData sheetId="30">
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>NONE</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="30"/>
       <sheetData sheetId="31" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
@@ -3001,8 +2998,8 @@
   </sheetPr>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3055,7 +3052,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -3301,7 +3298,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3344,7 +3341,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -3523,7 +3520,7 @@
   <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3602,7 +3599,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -4625,10 +4622,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F9E26F-A3D1-4EF0-8B53-4E3C372F92FB}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4667,7 +4664,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
@@ -5139,6 +5136,20 @@
       </c>
       <c r="D36" s="4" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
+        <v>10000001</v>
+      </c>
+      <c r="B37" s="4">
+        <v>100002</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -5152,7 +5163,7 @@
   <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5188,7 +5199,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>
